--- a/시장분석용_정보/시장분석용_4519036000.xlsx
+++ b/시장분석용_정보/시장분석용_4519036000.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,48 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
   </si>
 </sst>
 </file>
@@ -557,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:BK1"/>
+  <dimension ref="B1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:63">
+    <row r="1" spans="2:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,51 +659,6 @@
       </c>
       <c r="AV1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4519036000.xlsx
+++ b/시장분석용_정보/시장분석용_4519036000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -512,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AV1"/>
+  <dimension ref="B1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:48">
+    <row r="1" spans="2:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,54 +563,6 @@
       </c>
       <c r="AF1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
